--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikll\Documents\python\normzad\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B92141-4517-4491-B679-C0274B6992D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="16170" yWindow="540" windowWidth="21825" windowHeight="19140" xr2:uid="{F521F93E-7D05-4C83-9A47-12ED0803401D}"/>
+    <workbookView xWindow="16176" yWindow="540" windowWidth="21828" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,9 +31,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Подразделение 1</t>
-  </si>
-  <si>
     <t>Подразделение 2</t>
   </si>
   <si>
@@ -178,13 +170,16 @@
   </si>
   <si>
     <t>--</t>
+  </si>
+  <si>
+    <t>СТО цех эксплуатации</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -383,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -407,9 +408,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,7 +470,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -519,7 +522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -713,35 +716,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD8B26C-4CDF-40ED-BF73-11956CCA377F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:12">
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="2"/>
       <c r="K3" s="1" t="s">
@@ -749,12 +752,12 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:12">
       <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>1</v>
@@ -763,89 +766,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:12">
       <c r="G5" s="11">
         <v>5</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K5" s="11">
         <v>8</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="7:12">
       <c r="G6" s="4">
         <v>6</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="4">
         <v>9</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="7:12">
       <c r="G7" s="4">
         <v>9</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="4">
         <v>10</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="7:12">
       <c r="G8" s="4">
         <v>8</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:12">
       <c r="G9" s="4">
         <v>7</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:12">
       <c r="G10" s="4"/>
       <c r="H10" s="9"/>
       <c r="K10" s="4"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:12">
       <c r="G11" s="4"/>
       <c r="H11" s="9"/>
       <c r="K11" s="4"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:12">
       <c r="G12" s="6"/>
       <c r="H12" s="10"/>
       <c r="K12" s="6"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12">
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="16"/>
@@ -853,32 +856,32 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="2"/>
-      <c r="K18" s="1" t="s">
-        <v>36</v>
+      <c r="K18" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12">
       <c r="C19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="23" t="s">
         <v>19</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>1</v>
@@ -887,18 +890,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12">
       <c r="C20" s="12">
         <v>121</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="12">
         <v>5</v>
@@ -913,21 +916,21 @@
         <v>1</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
       <c r="C21" s="9">
         <v>125</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="9">
         <v>9</v>
@@ -942,21 +945,21 @@
         <v>2</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
       <c r="C22" s="9">
         <v>136</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="9">
         <v>9</v>
@@ -971,21 +974,21 @@
         <v>3</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
       <c r="C23" s="9">
         <v>157</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="9">
         <v>8</v>
@@ -1000,21 +1003,21 @@
         <v>4</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
       <c r="C24" s="10">
         <v>150</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="10">
         <v>6</v>
@@ -1029,56 +1032,56 @@
         <v>5</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
       <c r="K25" s="4">
         <v>6</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
       <c r="K26" s="4">
         <v>7</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
       <c r="K27" s="6"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
-        <v>38</v>
+    <row r="32" spans="3:12">
+      <c r="C32" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7">
       <c r="C33" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:7">
       <c r="C34" s="11">
         <v>121</v>
       </c>
@@ -1092,10 +1095,10 @@
         <v>8</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
       <c r="C35" s="4">
         <v>157</v>
       </c>
@@ -1109,10 +1112,10 @@
         <v>8</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
       <c r="C36" s="4">
         <v>136</v>
       </c>
@@ -1127,7 +1130,7 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7">
       <c r="C37" s="4">
         <v>125</v>
       </c>
@@ -1142,7 +1145,7 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7">
       <c r="C38" s="6">
         <v>150</v>
       </c>

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="16176" yWindow="540" windowWidth="21828" windowHeight="13176"/>
+    <workbookView xWindow="16170" yWindow="540" windowWidth="21825" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Departments</t>
   </si>
@@ -716,7 +715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,22 +723,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:L38"/>
+  <dimension ref="B3:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="7:12">
@@ -846,7 +845,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="2:12">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -861,7 +860,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="2:12">
       <c r="C19" s="8" t="s">
         <v>14</v>
       </c>
@@ -890,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="2:12">
       <c r="C20" s="12">
         <v>121</v>
       </c>
@@ -919,7 +918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="2:12">
       <c r="C21" s="9">
         <v>125</v>
       </c>
@@ -948,7 +947,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="2:12">
       <c r="C22" s="9">
         <v>136</v>
       </c>
@@ -977,7 +976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="2:12">
       <c r="C23" s="9">
         <v>157</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="2:12">
       <c r="C24" s="10">
         <v>150</v>
       </c>
@@ -1035,7 +1034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="2:12">
       <c r="K25" s="4">
         <v>6</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="2:12">
       <c r="K26" s="4">
         <v>7</v>
       </c>
@@ -1051,20 +1050,24 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="2:12">
       <c r="K27" s="6"/>
       <c r="L27" s="10"/>
     </row>
-    <row r="32" spans="3:12">
-      <c r="C32" s="24" t="s">
+    <row r="32" spans="2:12">
+      <c r="B32" s="23" t="s">
         <v>37</v>
       </c>
+      <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="2:7">
+      <c r="B33" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C33" s="8" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1084,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="3:7">
+    <row r="34" spans="2:7">
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
       <c r="C34" s="11">
         <v>121</v>
       </c>
@@ -1098,9 +1104,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="3:7">
+    <row r="35" spans="2:7">
+      <c r="B35" s="9">
+        <v>2</v>
+      </c>
       <c r="C35" s="4">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="D35" s="9">
         <v>3</v>
@@ -1115,7 +1124,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="3:7">
+    <row r="36" spans="2:7">
+      <c r="B36" s="9">
+        <v>3</v>
+      </c>
       <c r="C36" s="4">
         <v>136</v>
       </c>
@@ -1130,7 +1142,10 @@
       </c>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="3:7">
+    <row r="37" spans="2:7">
+      <c r="B37" s="9">
+        <v>4</v>
+      </c>
       <c r="C37" s="4">
         <v>125</v>
       </c>
@@ -1145,7 +1160,10 @@
       </c>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="3:7">
+    <row r="38" spans="2:7">
+      <c r="B38" s="10">
+        <v>5</v>
+      </c>
       <c r="C38" s="6">
         <v>150</v>
       </c>

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Departments</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>СТО цех эксплуатации</t>
+  </si>
+  <si>
+    <t>укцук</t>
   </si>
 </sst>
 </file>
@@ -424,6 +427,199 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Прямая со стрелкой 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6943725" y="752475"/>
+          <a:ext cx="1152525" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Прямая со стрелкой 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4733925" y="771525"/>
+          <a:ext cx="314325" cy="1924050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Прямая со стрелкой 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2324100" y="2876550"/>
+          <a:ext cx="5953125" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Прямая со стрелкой 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1409700" y="2895600"/>
+          <a:ext cx="9525" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,7 +911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -723,16 +919,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:L38"/>
+  <dimension ref="B3:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -741,7 +938,7 @@
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:12">
+    <row r="3" spans="3:12">
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
@@ -751,7 +948,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="7:12">
+    <row r="4" spans="3:12">
       <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
@@ -765,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="7:12">
+    <row r="5" spans="3:12">
       <c r="G5" s="11">
         <v>5</v>
       </c>
@@ -779,7 +976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="7:12">
+    <row r="6" spans="3:12">
       <c r="G6" s="4">
         <v>6</v>
       </c>
@@ -793,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="7:12">
+    <row r="7" spans="3:12">
       <c r="G7" s="4">
         <v>9</v>
       </c>
@@ -807,17 +1004,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="7:12">
+    <row r="8" spans="3:12">
       <c r="G8" s="4">
         <v>8</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="7:12">
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
       <c r="G9" s="4">
         <v>7</v>
       </c>
@@ -827,361 +1028,362 @@
       <c r="K9" s="4"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="7:12">
+    <row r="10" spans="3:12">
       <c r="G10" s="4"/>
       <c r="H10" s="9"/>
       <c r="K10" s="4"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="7:12">
+    <row r="11" spans="3:12">
       <c r="G11" s="4"/>
       <c r="H11" s="9"/>
       <c r="K11" s="4"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="7:12">
+    <row r="12" spans="3:12">
       <c r="G12" s="6"/>
       <c r="H12" s="10"/>
       <c r="K12" s="6"/>
       <c r="L12" s="10"/>
     </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="12">
+        <v>121</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="12">
+        <v>5</v>
+      </c>
+      <c r="H16" s="15">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12">
+        <v>8</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="C17" s="9">
+        <v>125</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="9">
+        <v>9</v>
+      </c>
+      <c r="H17" s="17">
+        <v>5</v>
+      </c>
+      <c r="I17" s="9">
+        <v>8</v>
+      </c>
+      <c r="K17" s="4">
+        <v>2</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="18" spans="2:12">
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="2"/>
-      <c r="K18" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="2"/>
+      <c r="C18" s="9">
+        <v>136</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="9">
+        <v>9</v>
+      </c>
+      <c r="H18" s="17">
+        <v>3</v>
+      </c>
+      <c r="I18" s="9">
+        <v>8</v>
+      </c>
+      <c r="K18" s="4">
+        <v>3</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9">
+        <v>157</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="9">
+        <v>8</v>
+      </c>
+      <c r="H19" s="17">
+        <v>4</v>
+      </c>
+      <c r="I19" s="9">
+        <v>8</v>
+      </c>
+      <c r="K19" s="4">
+        <v>4</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="C20" s="10">
+        <v>150</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="10">
+        <v>6</v>
+      </c>
+      <c r="H20" s="18">
+        <v>8</v>
+      </c>
+      <c r="I20" s="10">
+        <v>8</v>
+      </c>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="K21" s="4">
+        <v>6</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="K22" s="4">
+        <v>7</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="K23" s="6"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="11">
+        <v>121</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19">
+        <v>44927</v>
+      </c>
+      <c r="F30" s="12">
+        <v>8</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="9">
         <v>2</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="C31" s="4">
+        <v>125</v>
+      </c>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="20">
+        <v>44927</v>
+      </c>
+      <c r="F31" s="9">
+        <v>8</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="9">
+        <v>3</v>
+      </c>
+      <c r="C32" s="4">
+        <v>136</v>
+      </c>
+      <c r="D32" s="9">
+        <v>7</v>
+      </c>
+      <c r="E32" s="20">
+        <v>44927</v>
+      </c>
+      <c r="F32" s="9">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4">
+        <v>125</v>
+      </c>
+      <c r="D33" s="9">
+        <v>7</v>
+      </c>
+      <c r="E33" s="20">
+        <v>44928</v>
+      </c>
+      <c r="F33" s="9">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="10">
+        <v>5</v>
+      </c>
+      <c r="C34" s="6">
+        <v>150</v>
+      </c>
+      <c r="D34" s="10">
         <v>1</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="C20" s="12">
-        <v>121</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="12">
-        <v>5</v>
-      </c>
-      <c r="H20" s="15">
-        <v>4</v>
-      </c>
-      <c r="I20" s="12">
-        <v>8</v>
-      </c>
-      <c r="K20" s="11">
-        <v>1</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="C21" s="9">
-        <v>125</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="9">
-        <v>9</v>
-      </c>
-      <c r="H21" s="17">
-        <v>5</v>
-      </c>
-      <c r="I21" s="9">
-        <v>8</v>
-      </c>
-      <c r="K21" s="4">
-        <v>2</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="C22" s="9">
-        <v>136</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="9">
-        <v>9</v>
-      </c>
-      <c r="H22" s="17">
-        <v>3</v>
-      </c>
-      <c r="I22" s="9">
-        <v>8</v>
-      </c>
-      <c r="K22" s="4">
-        <v>3</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="C23" s="9">
-        <v>157</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="9">
-        <v>8</v>
-      </c>
-      <c r="H23" s="17">
-        <v>4</v>
-      </c>
-      <c r="I23" s="9">
-        <v>8</v>
-      </c>
-      <c r="K23" s="4">
-        <v>4</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="C24" s="10">
-        <v>150</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="10">
-        <v>6</v>
-      </c>
-      <c r="H24" s="18">
-        <v>8</v>
-      </c>
-      <c r="I24" s="10">
-        <v>8</v>
-      </c>
-      <c r="K24" s="4">
-        <v>5</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="K25" s="4">
-        <v>6</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
-      <c r="K26" s="4">
-        <v>7</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="K27" s="6"/>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-      <c r="C34" s="11">
-        <v>121</v>
-      </c>
-      <c r="D34" s="12">
-        <v>1</v>
-      </c>
-      <c r="E34" s="19">
-        <v>44927</v>
-      </c>
-      <c r="F34" s="12">
-        <v>8</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="9">
-        <v>2</v>
-      </c>
-      <c r="C35" s="4">
-        <v>125</v>
-      </c>
-      <c r="D35" s="9">
-        <v>3</v>
-      </c>
-      <c r="E35" s="20">
-        <v>44927</v>
-      </c>
-      <c r="F35" s="9">
-        <v>8</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="9">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4">
-        <v>136</v>
-      </c>
-      <c r="D36" s="9">
-        <v>7</v>
-      </c>
-      <c r="E36" s="20">
-        <v>44927</v>
-      </c>
-      <c r="F36" s="9">
-        <v>8</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="9">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4">
-        <v>125</v>
-      </c>
-      <c r="D37" s="9">
-        <v>7</v>
-      </c>
-      <c r="E37" s="20">
-        <v>44928</v>
-      </c>
-      <c r="F37" s="9">
-        <v>8</v>
-      </c>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="10">
-        <v>5</v>
-      </c>
-      <c r="C38" s="6">
-        <v>150</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="22">
+      <c r="E34" s="22">
         <v>44959</v>
       </c>
-      <c r="F38" s="10">
-        <v>8</v>
-      </c>
-      <c r="G38" s="7"/>
+      <c r="F34" s="10">
+        <v>8</v>
+      </c>
+      <c r="G34" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -1,30 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikll\Documents\python\normzad\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4AF5D3-F024-4B04-B9C2-C1FD9DCA3B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16170" yWindow="540" windowWidth="21825" windowHeight="13170"/>
+    <workbookView xWindow="13560" yWindow="480" windowWidth="21825" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Николай Хамаганов</author>
+  </authors>
+  <commentList>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{F03E8F82-6D6C-406E-8BFA-40F4EAEE37D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary key</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{CB765443-2C22-496C-81D3-71921100BBA9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary key</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{74424552-5C66-4EFF-AEA7-A5C3CB64C370}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Forain key</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{1CEA4C6F-6DEC-4B1C-9FCD-F302DE04EB63}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Forain key</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{8A9FF22F-1D12-44B8-99FD-786740717478}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary key</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{7B9A34C3-13C0-4835-A03D-23B58956942E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary key</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{2A283A01-203F-45AB-832A-8946BC5AD29E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Forain key</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{E3E59DEC-5AF7-469B-AE8E-B16A36F90E4D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Forain key</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Departments</t>
-  </si>
-  <si>
-    <t>Id</t>
   </si>
   <si>
     <t>Name</t>
@@ -180,8 +301,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +317,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -404,17 +538,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,7 +580,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Прямая со стрелкой 2"/>
+        <xdr:cNvPr id="3" name="Прямая со стрелкой 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -493,7 +633,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Прямая со стрелкой 4"/>
+        <xdr:cNvPr id="5" name="Прямая со стрелкой 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -528,7 +674,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -536,17 +682,23 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая со стрелкой 6"/>
+        <xdr:cNvPr id="7" name="Прямая со стрелкой 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2324100" y="2876550"/>
-          <a:ext cx="5953125" cy="2571750"/>
+          <a:off x="2714625" y="2876550"/>
+          <a:ext cx="5638800" cy="2552700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -587,7 +739,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая со стрелкой 8"/>
+        <xdr:cNvPr id="9" name="Прямая со стрелкой 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -911,22 +1069,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
@@ -938,9 +1097,9 @@
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2"/>
       <c r="K3" s="1" t="s">
@@ -948,107 +1107,107 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="3:12">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="K4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G5" s="11">
         <v>5</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="11">
         <v>8</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G6" s="4">
         <v>6</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" s="4">
         <v>9</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G7" s="4">
         <v>9</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" s="4">
         <v>10</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G8" s="4">
         <v>8</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12">
-      <c r="G9" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="6">
         <v>7</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>12</v>
+      <c r="H9" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="3:12">
-      <c r="G10" s="4"/>
-      <c r="H10" s="9"/>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
       <c r="K10" s="4"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="3:12">
-      <c r="G11" s="4"/>
-      <c r="H11" s="9"/>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="K11" s="4"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="3:12">
-      <c r="G12" s="6"/>
-      <c r="H12" s="10"/>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="K12" s="6"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="16"/>
@@ -1056,52 +1215,52 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="24" t="s">
-        <v>35</v>
+      <c r="K14" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="3:12">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>19</v>
-      </c>
       <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12">
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="12">
         <v>121</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="12">
         <v>5</v>
@@ -1116,26 +1275,26 @@
         <v>1</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C17" s="9">
         <v>125</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>21</v>
+      <c r="D17" t="s">
+        <v>20</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
       </c>
       <c r="G17" s="9">
         <v>9</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17">
         <v>5</v>
       </c>
       <c r="I17" s="9">
@@ -1145,26 +1304,26 @@
         <v>2</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C18" s="9">
         <v>136</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>22</v>
+      <c r="D18" t="s">
+        <v>21</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
       </c>
       <c r="G18" s="9">
         <v>9</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18">
         <v>3</v>
       </c>
       <c r="I18" s="9">
@@ -1174,26 +1333,26 @@
         <v>3</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C19" s="9">
         <v>157</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>23</v>
+      <c r="D19" t="s">
+        <v>22</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
       </c>
       <c r="G19" s="9">
         <v>8</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19">
         <v>4</v>
       </c>
       <c r="I19" s="9">
@@ -1203,26 +1362,26 @@
         <v>4</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C20" s="10">
         <v>150</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>24</v>
+      <c r="D20" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="G20" s="10">
         <v>6</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <v>8</v>
       </c>
       <c r="I20" s="10">
@@ -1232,32 +1391,32 @@
         <v>5</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K21" s="4">
         <v>6</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K22" s="4">
         <v>7</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="K23" s="6"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="23" t="s">
-        <v>37</v>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1265,27 +1424,27 @@
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="8" t="s">
-        <v>6</v>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="G29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>1</v>
       </c>
@@ -1295,17 +1454,17 @@
       <c r="D30" s="12">
         <v>1</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>44927</v>
       </c>
       <c r="F30" s="12">
         <v>8</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>2</v>
       </c>
@@ -1315,17 +1474,17 @@
       <c r="D31" s="9">
         <v>3</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>44927</v>
       </c>
       <c r="F31" s="9">
         <v>8</v>
       </c>
-      <c r="G31" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="G31" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>3</v>
       </c>
@@ -1335,7 +1494,7 @@
       <c r="D32" s="9">
         <v>7</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>44927</v>
       </c>
       <c r="F32" s="9">
@@ -1343,7 +1502,7 @@
       </c>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>4</v>
       </c>
@@ -1353,7 +1512,7 @@
       <c r="D33" s="9">
         <v>7</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>44928</v>
       </c>
       <c r="F33" s="9">
@@ -1361,7 +1520,7 @@
       </c>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10">
         <v>5</v>
       </c>
@@ -1371,7 +1530,7 @@
       <c r="D34" s="10">
         <v>1</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="21">
         <v>44959</v>
       </c>
       <c r="F34" s="10">
@@ -1384,6 +1543,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikll\Documents\python\normzad\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4AF5D3-F024-4B04-B9C2-C1FD9DCA3B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6067A3FF-D4AE-4B9A-8175-C40C513A7E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13560" yWindow="480" windowWidth="21825" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,6 +53,20 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+          </rPr>
+          <t>Primary key</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{66FB71B1-991E-479E-A382-009CDC340CC5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
           </rPr>
           <t>Primary key</t>
         </r>
@@ -143,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Departments</t>
   </si>
@@ -293,16 +307,13 @@
   </si>
   <si>
     <t>СТО цех эксплуатации</t>
-  </si>
-  <si>
-    <t>укцук</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +342,23 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,12 +373,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -424,19 +456,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -520,32 +539,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,8 +590,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
@@ -576,7 +599,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -591,8 +614,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6943725" y="752475"/>
-          <a:ext cx="1152525" cy="2000250"/>
+          <a:off x="6953250" y="752475"/>
+          <a:ext cx="1219200" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -727,15 +750,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -749,9 +772,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1409700" y="2895600"/>
-          <a:ext cx="9525" cy="2466975"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1419225" y="2895600"/>
+          <a:ext cx="295275" cy="2476500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -823,7 +846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -875,7 +898,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1080,7 +1103,7 @@
   <dimension ref="B3:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,435 +1131,413 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G5" s="11">
+      <c r="G5" s="20">
         <v>5</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="20">
         <v>8</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="4">
+      <c r="G6" s="20">
         <v>6</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="20">
         <v>9</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="4">
+      <c r="G7" s="20">
         <v>9</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="20">
         <v>10</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="4">
+      <c r="G8" s="20">
         <v>8</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G9" s="6">
+      <c r="G9" s="21">
         <v>7</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="10"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="12">
+      <c r="C16" s="19">
         <v>121</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="23">
         <v>5</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="11">
         <v>4</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="23">
         <v>8</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="20">
         <v>1</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="9">
+      <c r="C17" s="20">
         <v>125</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="24">
         <v>9</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="24">
         <v>8</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="20">
         <v>2</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="9">
+      <c r="C18" s="20">
         <v>136</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F18" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="24">
         <v>9</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="24">
         <v>8</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="20">
         <v>3</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="9">
+      <c r="C19" s="20">
         <v>157</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F19" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="24">
         <v>8</v>
       </c>
       <c r="H19">
         <v>4</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="24">
         <v>8</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="20">
         <v>4</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C20" s="10">
+      <c r="C20" s="21">
         <v>150</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="25">
         <v>6</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="13">
         <v>8</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="25">
         <v>8</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="20">
         <v>5</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K21" s="4">
+      <c r="K21" s="20">
         <v>6</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K22" s="4">
+      <c r="K22" s="20">
         <v>7</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K23" s="6"/>
-      <c r="L23" s="10"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
+      <c r="B30" s="19">
         <v>1</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="26">
         <v>121</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="14">
         <v>44927</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="8">
         <v>8</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
+      <c r="B31" s="20">
         <v>2</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="27">
         <v>125</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="24">
         <v>3</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="15">
         <v>44927</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="6">
         <v>8</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="9">
+      <c r="B32" s="20">
         <v>3</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="27">
         <v>136</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="24">
         <v>7</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="15">
         <v>44927</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="6">
         <v>8</v>
       </c>
-      <c r="G32" s="5"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
+      <c r="B33" s="20">
         <v>4</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="27">
         <v>125</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="24">
         <v>7</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="15">
         <v>44928</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="6">
         <v>8</v>
       </c>
-      <c r="G33" s="5"/>
+      <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="10">
+      <c r="B34" s="21">
         <v>5</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="28">
         <v>150</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="25">
         <v>1</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="17">
         <v>44959</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="7">
         <v>8</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikll\Documents\python\normzad\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6067A3FF-D4AE-4B9A-8175-C40C513A7E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="480" windowWidth="21825" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13560" yWindow="480" windowWidth="21825" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Николай Хамаганов</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{F03E8F82-6D6C-406E-8BFA-40F4EAEE37D7}">
+    <comment ref="G4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{CB765443-2C22-496C-81D3-71921100BBA9}">
+    <comment ref="K4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{66FB71B1-991E-479E-A382-009CDC340CC5}">
+    <comment ref="C15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{74424552-5C66-4EFF-AEA7-A5C3CB64C370}">
+    <comment ref="G15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{1CEA4C6F-6DEC-4B1C-9FCD-F302DE04EB63}">
+    <comment ref="I15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K15" authorId="0" shapeId="0" xr:uid="{8A9FF22F-1D12-44B8-99FD-786740717478}">
+    <comment ref="K15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{7B9A34C3-13C0-4835-A03D-23B58956942E}">
+    <comment ref="B29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{2A283A01-203F-45AB-832A-8946BC5AD29E}">
+    <comment ref="C29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{E3E59DEC-5AF7-469B-AE8E-B16A36F90E4D}">
+    <comment ref="D29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Departments</t>
   </si>
@@ -165,12 +159,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Подразделение 2</t>
-  </si>
-  <si>
-    <t>Подразделение 3</t>
-  </si>
-  <si>
     <t>Positions</t>
   </si>
   <si>
@@ -198,9 +186,6 @@
     <t>Workers</t>
   </si>
   <si>
-    <t>TabelNom</t>
-  </si>
-  <si>
     <t>LastName</t>
   </si>
   <si>
@@ -307,13 +292,19 @@
   </si>
   <si>
     <t>СТО цех эксплуатации</t>
+  </si>
+  <si>
+    <t>WorkerId</t>
+  </si>
+  <si>
+    <t>ЧПМ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,7 +597,7 @@
         <xdr:cNvPr id="3" name="Прямая со стрелкой 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -659,7 +650,7 @@
         <xdr:cNvPr id="5" name="Прямая со стрелкой 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -712,7 +703,7 @@
         <xdr:cNvPr id="7" name="Прямая со стрелкой 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -765,7 +756,7 @@
         <xdr:cNvPr id="9" name="Прямая со стрелкой 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -846,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -898,7 +889,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1092,21 +1083,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
@@ -1120,9 +1111,9 @@
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:12">
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2"/>
       <c r="K3" s="1" t="s">
@@ -1130,85 +1121,81 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:12">
       <c r="G4" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:12">
       <c r="G5" s="20">
         <v>5</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" s="20">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
       <c r="G6" s="20">
         <v>6</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K6" s="20">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
       <c r="G7" s="20">
         <v>9</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="20">
-        <v>10</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="3:12">
       <c r="G8" s="20">
         <v>8</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:12">
       <c r="G9" s="21">
         <v>7</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:12">
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="12"/>
@@ -1217,51 +1204,51 @@
       <c r="H14" s="12"/>
       <c r="I14" s="2"/>
       <c r="K14" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:12">
       <c r="C15" s="18" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>18</v>
-      </c>
       <c r="K15" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:12">
       <c r="C16" s="19">
         <v>121</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" s="23">
         <v>5</v>
@@ -1270,27 +1257,27 @@
         <v>4</v>
       </c>
       <c r="I16" s="23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K16" s="20">
         <v>1</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="C17" s="20">
         <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G17" s="24">
         <v>9</v>
@@ -1299,27 +1286,27 @@
         <v>5</v>
       </c>
       <c r="I17" s="24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K17" s="20">
         <v>2</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="C18" s="20">
         <v>136</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G18" s="24">
         <v>9</v>
@@ -1328,27 +1315,27 @@
         <v>3</v>
       </c>
       <c r="I18" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K18" s="20">
         <v>3</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="C19" s="20">
         <v>157</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G19" s="24">
         <v>8</v>
@@ -1357,27 +1344,27 @@
         <v>4</v>
       </c>
       <c r="I19" s="24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K19" s="20">
         <v>4</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="C20" s="21">
         <v>150</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>29</v>
       </c>
       <c r="G20" s="25">
         <v>6</v>
@@ -1386,38 +1373,38 @@
         <v>8</v>
       </c>
       <c r="I20" s="25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K20" s="20">
         <v>5</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
       <c r="K21" s="20">
         <v>6</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="K22" s="20">
         <v>7</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="K23" s="21"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12">
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1425,27 +1412,27 @@
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12">
       <c r="B29" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
       <c r="B30" s="19">
         <v>1</v>
       </c>
@@ -1462,10 +1449,10 @@
         <v>8</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
       <c r="B31" s="20">
         <v>2</v>
       </c>
@@ -1482,10 +1469,10 @@
         <v>8</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
       <c r="B32" s="20">
         <v>3</v>
       </c>
@@ -1503,7 +1490,7 @@
       </c>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7">
       <c r="B33" s="20">
         <v>4</v>
       </c>
@@ -1521,7 +1508,7 @@
       </c>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7">
       <c r="B34" s="21">
         <v>5</v>
       </c>

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikll\Documents\python\normzad\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2849FE6-43A0-4A4B-B912-534C6992C762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="480" windowWidth="21825" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Николай Хамаганов</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G15" authorId="0">
+    <comment ref="G15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K15" authorId="0">
+    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="0">
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0">
+    <comment ref="C39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D29" authorId="0">
+    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Departments</t>
   </si>
@@ -298,13 +304,28 @@
   </si>
   <si>
     <t>ЧПМ</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>DepartmentId</t>
+  </si>
+  <si>
+    <t>workerList</t>
+  </si>
+  <si>
+    <t>view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,8 +395,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -526,11 +553,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -560,9 +600,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,7 +642,7 @@
         <xdr:cNvPr id="3" name="Прямая со стрелкой 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -650,7 +695,7 @@
         <xdr:cNvPr id="5" name="Прямая со стрелкой 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -688,22 +733,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="Прямая со стрелкой 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -711,8 +756,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2714625" y="2876550"/>
-          <a:ext cx="5638800" cy="2552700"/>
+          <a:off x="2419350" y="5295900"/>
+          <a:ext cx="2228850" cy="2009775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -747,16 +792,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="Прямая со стрелкой 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -765,7 +810,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="1419225" y="2895600"/>
-          <a:ext cx="295275" cy="2476500"/>
+          <a:ext cx="85725" cy="4333875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -783,6 +828,165 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FACC91E-F1C6-5F17-FA10-4C225B17E2FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="3524250"/>
+          <a:ext cx="3143250" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E45B7DE5-111A-4E46-B0B4-D078A0B1528E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="676275"/>
+          <a:ext cx="8486775" cy="3752850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D800DF-BB93-44AD-839B-B7D70A96054B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9210675" y="676275"/>
+          <a:ext cx="4676775" cy="3733800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1083,25 +1287,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:L34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1111,7 +1315,7 @@
     <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1325,7 @@
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="3:12">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G5" s="20">
         <v>5</v>
       </c>
@@ -1149,7 +1353,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G6" s="20">
         <v>6</v>
       </c>
@@ -1163,7 +1367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G7" s="20">
         <v>9</v>
       </c>
@@ -1173,7 +1377,7 @@
       <c r="K7" s="20"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G8" s="20">
         <v>8</v>
       </c>
@@ -1183,7 +1387,7 @@
       <c r="K8" s="20"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G9" s="21">
         <v>7</v>
       </c>
@@ -1193,7 +1397,7 @@
       <c r="K9" s="21"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="14" spans="3:12">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1203,12 +1407,8 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="2"/>
-      <c r="K14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="3:12">
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" s="18" t="s">
         <v>3</v>
       </c>
@@ -1230,14 +1430,8 @@
       <c r="I15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12">
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" s="19">
         <v>121</v>
       </c>
@@ -1259,14 +1453,8 @@
       <c r="I16" s="23">
         <v>1</v>
       </c>
-      <c r="K16" s="20">
-        <v>1</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="20">
         <v>125</v>
       </c>
@@ -1288,14 +1476,8 @@
       <c r="I17" s="24">
         <v>2</v>
       </c>
-      <c r="K17" s="20">
-        <v>2</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="20">
         <v>136</v>
       </c>
@@ -1317,14 +1499,8 @@
       <c r="I18" s="24">
         <v>1</v>
       </c>
-      <c r="K18" s="20">
-        <v>3</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="20">
         <v>157</v>
       </c>
@@ -1346,14 +1522,8 @@
       <c r="I19" s="24">
         <v>2</v>
       </c>
-      <c r="K19" s="20">
-        <v>4</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="21">
         <v>150</v>
       </c>
@@ -1375,156 +1545,390 @@
       <c r="I20" s="25">
         <v>2</v>
       </c>
-      <c r="K20" s="20">
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="M22" s="29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="M23" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="M24" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="P24" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="T24" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="U24" s="33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="M25" s="31">
+        <v>121</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="32">
+        <v>4</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="T25" s="33">
+        <v>5</v>
+      </c>
+      <c r="U25" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="M26" s="31">
+        <v>125</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="32">
+        <v>5</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="33">
+        <v>9</v>
+      </c>
+      <c r="U26" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="M27" s="31">
+        <v>136</v>
+      </c>
+      <c r="N27" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>3</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" s="33">
+        <v>9</v>
+      </c>
+      <c r="U27" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="G28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="31">
+        <v>157</v>
+      </c>
+      <c r="N28" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="32">
+        <v>4</v>
+      </c>
+      <c r="R28" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S28" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="T28" s="33">
+        <v>8</v>
+      </c>
+      <c r="U28" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="G29" s="20">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="31">
+        <v>150</v>
+      </c>
+      <c r="N29" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29" s="32">
+        <v>8</v>
+      </c>
+      <c r="R29" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S29" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" s="33">
+        <v>6</v>
+      </c>
+      <c r="U29" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="G30" s="20">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="G31" s="20">
+        <v>3</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="G32" s="20">
+        <v>4</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="20">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
-      <c r="K21" s="20">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="20">
         <v>6</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
-      <c r="K22" s="20">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="20">
         <v>7</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
-      <c r="K23" s="21"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="1" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="21"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="B29" s="18" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D39" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:12">
-      <c r="B30" s="19">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="19">
         <v>1</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C40" s="26">
         <v>121</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D40" s="23">
         <v>1</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E40" s="14">
         <v>44927</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F40" s="8">
         <v>8</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G40" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="20">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="20">
         <v>2</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C41" s="27">
         <v>125</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D41" s="24">
         <v>3</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E41" s="15">
         <v>44927</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F41" s="6">
         <v>8</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G41" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
-      <c r="B32" s="20">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="20">
         <v>3</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C42" s="27">
         <v>136</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D42" s="24">
         <v>7</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E42" s="15">
         <v>44927</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F42" s="6">
         <v>8</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="20">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="20">
         <v>4</v>
       </c>
-      <c r="C33" s="27">
+      <c r="C43" s="27">
         <v>125</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D43" s="24">
         <v>7</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E43" s="15">
         <v>44928</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F43" s="6">
         <v>8</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="21">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="21">
         <v>5</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C44" s="28">
         <v>150</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D44" s="25">
         <v>1</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E44" s="17">
         <v>44959</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F44" s="7">
         <v>8</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G44" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikll\Documents\python\normzad\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2849FE6-43A0-4A4B-B912-534C6992C762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D069018-65A4-4E70-AFB4-C78E15206C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -157,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>Departments</t>
   </si>
@@ -320,6 +321,15 @@
   <si>
     <t>view</t>
   </si>
+  <si>
+    <t>Database layer</t>
+  </si>
+  <si>
+    <t>Business logic layer</t>
+  </si>
+  <si>
+    <t>User interface layer</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,6 +408,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -602,15 +624,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4472C4"/>
+      <color rgb="FF2F528F"/>
+      <color rgb="FF7F6000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -987,6 +1018,4022 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>424725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="Straight Arrow Connector 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607F5A85-423D-5F3F-F655-2CFBE31DC593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="76" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7058887" y="1226774"/>
+          <a:ext cx="1290638" cy="3145200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>424725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Straight Arrow Connector 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DDB768-E80F-80A3-8C07-0ACB173E35ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="77" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4525237" y="1226774"/>
+          <a:ext cx="3824288" cy="3145200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362812</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>424725</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Straight Arrow Connector 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398AF4E7-F0A1-61EF-5025-DE538113858D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="69" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2191612" y="1226774"/>
+          <a:ext cx="6157913" cy="3145200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Magnetic Disk 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB29C1CF-2E68-3788-E828-4E41E24CA9C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429376" y="12858750"/>
+          <a:ext cx="1219200" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>normzad.db</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291F1503-0BF4-4078-EFAD-033489B22711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7038976" y="12277726"/>
+          <a:ext cx="4762" cy="581024"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B279823F-E90F-6676-3822-1B7D2628AE4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="11896726"/>
+          <a:ext cx="942975" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>db.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>432412</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>293212</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>17099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E80BD969-7E23-E82F-B194-1F6BFF7D59B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651612" y="10325099"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>dbDepartments.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327637</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>188437</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>17099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B33C152-D57E-0FD3-555F-34CB9D23F7FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3985237" y="10325099"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dbTasks.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>422887</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>283687</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>17099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6790DEF6-3630-2C06-F693-34C48A7EB9B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6518887" y="10325099"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>dbPositions.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>384675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>17099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D268B74-5360-7F03-F368-91DA18B432C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="5372099"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dbJobs.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41774</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253A1F04-28AC-7B1B-3C39-278EB0F018F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9324974" y="6934199"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>dbTestData.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>413250</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>45674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95EE4847-4274-1E0E-C0FE-93CA969888D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="5400674"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>dbWorkers.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362812</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>17099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B8505D-5028-2DDB-D67E-C10E48B187C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2191612" y="10685099"/>
+          <a:ext cx="4852126" cy="1211627"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>17099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E71E0ADB-C66B-E7AE-4BFA-EF155E4938DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4525237" y="10685099"/>
+          <a:ext cx="2518501" cy="1211627"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>17099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA55BB8D-B315-17C7-72EC-3589D58D4366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7043738" y="10685099"/>
+          <a:ext cx="15149" cy="1211627"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>17099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>454275</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B942446-B69F-A467-660F-DB01D9067ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7043738" y="10685099"/>
+          <a:ext cx="2554537" cy="1211627"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>65699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5318F5E-6D75-9848-2277-38E3218A648E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7515225" y="12067199"/>
+          <a:ext cx="1809749" cy="20027"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>432412</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>293212</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08FAB59-A5B5-4188-9BB3-A2AD77198F93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1651612" y="8077199"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>blDepartments.py</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327637</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>188437</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CCACEB-88BC-4791-9998-33F077CF7B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3985237" y="8077199"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>blTasks.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>422887</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>283687</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B615E06-503B-49F1-B507-0DCC74A8CA38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6518887" y="8077199"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>blPositions.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>384675</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C678E69C-93CC-4FB1-8F7F-F64C1AAA6ED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="3124199"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>blJobs.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>413250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B502BF6-977B-4C8E-BEC3-C383A5158822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="3105149"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>blWorkers.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>45674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>482850</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C380CBB-1F8B-6BAA-9E91-FB1BFB5EAF15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7043738" y="10713674"/>
+          <a:ext cx="5021512" cy="1183052"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362812</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362812</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97095028-5CD1-A50C-3B19-46F89880E1E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="43" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2191612" y="8437199"/>
+          <a:ext cx="0" cy="1887900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAE1B8E-3A15-729A-37E4-DCFF9B636298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="0"/>
+          <a:endCxn id="44" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4525237" y="8437199"/>
+          <a:ext cx="0" cy="1887900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE09510-F965-2614-7854-BB749711A0A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="45" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7058887" y="8437199"/>
+          <a:ext cx="0" cy="1887900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>454275</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>454275</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A655B5BE-5185-D2F2-E293-5F085C3E4375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="0"/>
+          <a:endCxn id="46" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9598275" y="3484199"/>
+          <a:ext cx="0" cy="1887900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>482850</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>482850</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A954C06-1F14-F06F-D507-3A83E579C23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="48" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12065250" y="3465149"/>
+          <a:ext cx="0" cy="1935525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>535125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4A5B25-E9C4-488E-90A1-185261A5DF19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="866774"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>gui.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473212</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rectangle 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5F0E8B-3691-4ACA-8938-BCE487D59C1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1471612" y="4371974"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>guiDepartments.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>506550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rectangle 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B24BC46-F53C-4111-B56A-36950BFAD33F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162550" y="3019424"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7F6000">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="2F528F">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>guiDictionary.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>439875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rectangle 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{154E829A-416B-4476-B068-F719A57147B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="3038474"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7F6000">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="2F528F">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>guiEditName.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>211275</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>74249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rectangle 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFAB9B8B-B244-49A6-B6AE-207C6019A23F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="4095749"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7F6000">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="2F528F">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>guiFrame4buttons.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>277950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Rectangle 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E163927-8B4D-407C-A63C-2D8AEF2D9960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4933950" y="3686174"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7F6000">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="2F528F">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>guiFrameGrid.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>430350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>179024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="Rectangle 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEABAAF-F9E5-4584-BCAC-6BEF6F6480AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="3629024"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7F6000">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="2F528F">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>guiFrameLbltext.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>463687</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="Rectangle 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F3197B-8EAE-4225-9625-0BB4463E8C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6338887" y="4371974"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>guiPositions.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368437</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectangle 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEAB02DA-F887-4916-8577-5336483463EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3805237" y="4371974"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>guiTasks.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Arrow Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EA8CC4-FB30-3D5E-DEEA-66342A5CEEEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="0"/>
+          <a:endCxn id="70" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5653950" y="3379424"/>
+          <a:ext cx="228600" cy="306750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396150</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17214436-B62D-D34A-02CC-5BDDC15D3E4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="0"/>
+          <a:endCxn id="70" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5882550" y="3379424"/>
+          <a:ext cx="314325" cy="716325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362812</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{037B73A8-29B3-4692-C562-06E03A21D0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="0"/>
+          <a:endCxn id="69" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2191612" y="4731974"/>
+          <a:ext cx="3690938" cy="573450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Straight Arrow Connector 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3EE38A-AC92-87E8-2181-75ADA807F98B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="0"/>
+          <a:endCxn id="77" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4525237" y="4731974"/>
+          <a:ext cx="1357313" cy="573450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B62F256-7A26-9648-8438-BB551DA1AF91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="0"/>
+          <a:endCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5882550" y="4731974"/>
+          <a:ext cx="1176337" cy="573450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>319950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>159974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>329475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Arrow Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD3BF91-F24F-4ADD-8FF6-0A5D49B0B7B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="0"/>
+          <a:endCxn id="71" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3367950" y="3398474"/>
+          <a:ext cx="9525" cy="230550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362812</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362812</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D92547-AF0B-36D9-0AA9-B1DAB72EE87E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="0"/>
+          <a:endCxn id="69" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2191612" y="4731974"/>
+          <a:ext cx="0" cy="3345225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7097B1AC-44C0-1CFB-963E-AD92314B20C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="0"/>
+          <a:endCxn id="77" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4525237" y="4731974"/>
+          <a:ext cx="0" cy="3345225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Arrow Connector 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE5C94F-E01E-8E9D-6F12-E40409C3DF08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="0"/>
+          <a:endCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7058887" y="4731974"/>
+          <a:ext cx="0" cy="3345225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473212</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="Rectangle 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EB95B6-B292-4DAF-A4DA-50C306493044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1471612" y="2181224"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>guiDepartments.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>463687</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="Rectangle 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{522B398B-115B-49D2-A86B-36E31073B0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6338887" y="2181224"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>guiPositions.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>368437</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="Rectangle 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C55876-A887-4650-A196-EDAE11DA736E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3805237" y="2181224"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>guiTasks.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362812</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>329475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="Straight Arrow Connector 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69740787-9D3E-47B5-8F41-A178E2B34FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="0"/>
+          <a:endCxn id="107" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2191612" y="2541224"/>
+          <a:ext cx="1185863" cy="497250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>329475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="Straight Arrow Connector 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D42AC4-E681-4014-BEF2-2481609362C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="0"/>
+          <a:endCxn id="109" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3377475" y="2541224"/>
+          <a:ext cx="1147762" cy="497250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>329475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="Straight Arrow Connector 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F5EB03-057C-41C4-BC76-E9926D4F179F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="0"/>
+          <a:endCxn id="108" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3377475" y="2541224"/>
+          <a:ext cx="3681412" cy="497250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362812</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362812</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Straight Arrow Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8A7875-5B7A-6F12-AF91-33D0B768C3C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="0"/>
+          <a:endCxn id="107" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2191612" y="2541224"/>
+          <a:ext cx="0" cy="1830750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Straight Arrow Connector 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67CA0E3-8ED7-8D29-13B3-36C024F45A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="0"/>
+          <a:endCxn id="109" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4525237" y="2541224"/>
+          <a:ext cx="0" cy="1830750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Straight Arrow Connector 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1602C6C-0FAB-87F0-7EB9-D726B18B0520}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="0"/>
+          <a:endCxn id="108" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7058887" y="2541224"/>
+          <a:ext cx="0" cy="1830750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>577987</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="Rectangle 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F27E5AE0-2619-4EAB-90EE-47C5C19A096B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13768387" y="1962149"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>guiJobList.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>489450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>36149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="Rectangle 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3AA302F-127C-4CF9-A1E7-6915B4879FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14039850" y="10344149"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dbJobList.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>479925</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>150449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="Rectangle 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2870DA40-DD43-467A-9C9D-093EE24F31CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14030325" y="7981949"/>
+          <a:ext cx="1080000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>blJobList.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>549525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>150449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>559050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="Straight Arrow Connector 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78EF2492-FDA5-44D8-B3DD-818B9132DD04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="0"/>
+          <a:endCxn id="160" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14570325" y="8341949"/>
+          <a:ext cx="9525" cy="2002200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>36149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>559050</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="Straight Arrow Connector 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1934D38A-CB8C-4E83-9E78-EAB6B5C1EFDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="159" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7043738" y="10704149"/>
+          <a:ext cx="7536112" cy="1192577"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>467587</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>549525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="Straight Arrow Connector 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA5A92B-09BA-4825-981F-E26661A859DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="0"/>
+          <a:endCxn id="158" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14488387" y="2322149"/>
+          <a:ext cx="81938" cy="5659800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1297,7 +5344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
@@ -1568,28 +5615,28 @@
       <c r="M24" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="32" t="s">
+      <c r="N24" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="32" t="s">
+      <c r="O24" t="s">
         <v>1</v>
       </c>
-      <c r="P24" s="32" t="s">
+      <c r="P24" t="s">
         <v>12</v>
       </c>
-      <c r="Q24" s="32" t="s">
+      <c r="Q24" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="32" t="s">
+      <c r="R24" t="s">
         <v>49</v>
       </c>
-      <c r="S24" s="32" t="s">
+      <c r="S24" t="s">
         <v>50</v>
       </c>
-      <c r="T24" s="33" t="s">
+      <c r="T24" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="U24" s="33" t="s">
+      <c r="U24" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1597,28 +5644,28 @@
       <c r="M25" s="31">
         <v>121</v>
       </c>
-      <c r="N25" s="32" t="s">
+      <c r="N25" t="s">
         <v>16</v>
       </c>
-      <c r="O25" s="32" t="s">
+      <c r="O25" t="s">
         <v>21</v>
       </c>
-      <c r="P25" s="32" t="s">
+      <c r="P25" t="s">
         <v>29</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25">
         <v>4</v>
       </c>
-      <c r="R25" s="32" t="s">
+      <c r="R25" t="s">
         <v>46</v>
       </c>
-      <c r="S25" s="32" t="s">
+      <c r="S25" t="s">
         <v>5</v>
       </c>
-      <c r="T25" s="33">
+      <c r="T25" s="32">
         <v>5</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1626,28 +5673,28 @@
       <c r="M26" s="31">
         <v>125</v>
       </c>
-      <c r="N26" s="32" t="s">
+      <c r="N26" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="32" t="s">
+      <c r="O26" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" t="s">
         <v>27</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26">
         <v>5</v>
       </c>
-      <c r="R26" s="32" t="s">
+      <c r="R26" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="32" t="s">
+      <c r="S26" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="33">
+      <c r="T26" s="32">
         <v>9</v>
       </c>
-      <c r="U26" s="33">
+      <c r="U26" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1659,28 +5706,28 @@
       <c r="M27" s="31">
         <v>136</v>
       </c>
-      <c r="N27" s="32" t="s">
+      <c r="N27" t="s">
         <v>18</v>
       </c>
-      <c r="O27" s="32" t="s">
+      <c r="O27" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" t="s">
         <v>28</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27">
         <v>3</v>
       </c>
-      <c r="R27" s="32" t="s">
+      <c r="R27" t="s">
         <v>46</v>
       </c>
-      <c r="S27" s="32" t="s">
+      <c r="S27" t="s">
         <v>7</v>
       </c>
-      <c r="T27" s="33">
+      <c r="T27" s="32">
         <v>9</v>
       </c>
-      <c r="U27" s="33">
+      <c r="U27" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1694,28 +5741,28 @@
       <c r="M28" s="31">
         <v>157</v>
       </c>
-      <c r="N28" s="32" t="s">
+      <c r="N28" t="s">
         <v>19</v>
       </c>
-      <c r="O28" s="32" t="s">
+      <c r="O28" t="s">
         <v>25</v>
       </c>
-      <c r="P28" s="32" t="s">
+      <c r="P28" t="s">
         <v>30</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q28">
         <v>4</v>
       </c>
-      <c r="R28" s="32" t="s">
+      <c r="R28" t="s">
         <v>48</v>
       </c>
-      <c r="S28" s="32" t="s">
+      <c r="S28" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="33">
+      <c r="T28" s="32">
         <v>8</v>
       </c>
-      <c r="U28" s="33">
+      <c r="U28" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1729,28 +5776,28 @@
       <c r="M29" s="31">
         <v>150</v>
       </c>
-      <c r="N29" s="32" t="s">
+      <c r="N29" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="32" t="s">
+      <c r="O29" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="32" t="s">
+      <c r="P29" t="s">
         <v>26</v>
       </c>
-      <c r="Q29" s="32">
+      <c r="Q29">
         <v>8</v>
       </c>
-      <c r="R29" s="32" t="s">
+      <c r="R29" t="s">
         <v>48</v>
       </c>
-      <c r="S29" s="32" t="s">
+      <c r="S29" t="s">
         <v>6</v>
       </c>
-      <c r="T29" s="33">
+      <c r="T29" s="32">
         <v>6</v>
       </c>
-      <c r="U29" s="33">
+      <c r="U29" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1936,6 +5983,96 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC19A3C-744C-4DF8-B4F4-248E994AC067}">
+  <dimension ref="A5:A66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikll\Documents\python\normzad\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D069018-65A4-4E70-AFB4-C78E15206C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE284337-37CC-4959-9E04-94F9E5709609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2901,6 +2901,14 @@
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:effectLst>
+          <a:glow rad="228600">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2925,7 +2933,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>gui.py</a:t>
+            <a:t>guiMain.py</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2969,6 +2977,13 @@
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="relaxedInset"/>
+        </a:sp3d>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3386,9 +3401,16 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>guiFrameLbltext.py</a:t>
           </a:r>
         </a:p>
@@ -3433,6 +3455,13 @@
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="relaxedInset"/>
+        </a:sp3d>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3501,6 +3530,13 @@
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="relaxedInset"/>
+        </a:sp3d>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4103,6 +4139,14 @@
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4171,6 +4215,14 @@
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4239,6 +4291,14 @@
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4624,15 +4684,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>577987</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>36149</xdr:rowOff>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16012</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4647,7 +4707,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13768387" y="1962149"/>
+          <a:off x="13816012" y="4352924"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4658,6 +4718,13 @@
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT prst="relaxedInset"/>
+        </a:sp3d>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4989,9 +5056,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>467587</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>36149</xdr:rowOff>
+      <xdr:colOff>515212</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
@@ -5015,13 +5082,74 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="14488387" y="2322149"/>
-          <a:ext cx="81938" cy="5659800"/>
+          <a:off x="14536012" y="4712924"/>
+          <a:ext cx="34313" cy="3269025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>396150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>515212</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D7AAD4-3E98-463D-BACA-6E042325A4B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="0"/>
+          <a:endCxn id="158" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5882550" y="4712924"/>
+          <a:ext cx="8653462" cy="592500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -5990,8 +6118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC19A3C-744C-4DF8-B4F4-248E994AC067}">
   <dimension ref="A5:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikll\Documents\python\normzad\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE284337-37CC-4959-9E04-94F9E5709609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09FBA52-FF97-4E11-ACBE-F0F0CE10A921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1034,15 +1034,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>353287</xdr:colOff>
+      <xdr:colOff>10387</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83774</xdr:rowOff>
+      <xdr:rowOff>112349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>424725</xdr:colOff>
+      <xdr:colOff>434250</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1060,8 +1060,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7058887" y="1226774"/>
-          <a:ext cx="1290638" cy="3145200"/>
+          <a:off x="6715987" y="1255349"/>
+          <a:ext cx="1643063" cy="3088050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1095,11 +1095,11 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>258037</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83774</xdr:rowOff>
+      <xdr:rowOff>112349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>424725</xdr:colOff>
+      <xdr:colOff>434250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
@@ -1119,8 +1119,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4525237" y="1226774"/>
-          <a:ext cx="3824288" cy="3145200"/>
+          <a:off x="4525237" y="1255349"/>
+          <a:ext cx="3833813" cy="3116625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1154,11 +1154,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>362812</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83774</xdr:rowOff>
+      <xdr:rowOff>112349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>424725</xdr:colOff>
+      <xdr:colOff>434250</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
@@ -1178,8 +1178,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2191612" y="1226774"/>
-          <a:ext cx="6157913" cy="3145200"/>
+          <a:off x="2191612" y="1255349"/>
+          <a:ext cx="6167438" cy="3116625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1212,13 +1212,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1288,12 +1288,12 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1312,14 +1312,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7038976" y="12277726"/>
-          <a:ext cx="4762" cy="581024"/>
+          <a:off x="7038976" y="12306301"/>
+          <a:ext cx="19050" cy="1314449"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1342,15 +1343,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>428626</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>276226</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1365,8 +1366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="11896726"/>
-          <a:ext cx="942975" cy="381000"/>
+          <a:off x="6524626" y="11925301"/>
+          <a:ext cx="1066800" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1407,7 +1408,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>db.py</a:t>
+            <a:t>dbCommon.py</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1574,15 +1575,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>422887</xdr:colOff>
+      <xdr:colOff>79987</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>283687</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>17099</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>550387</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>179024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1597,7 +1598,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6518887" y="10325099"/>
+          <a:off x="6175987" y="10296524"/>
           <a:ext cx="1080000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1636,16 +1637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>384675</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>17099</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>289425</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>169499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1660,7 +1661,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9058275" y="5372099"/>
+          <a:off x="13839825" y="10286999"/>
           <a:ext cx="1080000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1726,16 +1727,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>41774</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>55199</xdr:rowOff>
+      <xdr:colOff>403724</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>83774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1750,12 +1751,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9324974" y="6934199"/>
+          <a:off x="8467724" y="12677774"/>
           <a:ext cx="1080000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1789,16 +1795,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>413250</xdr:colOff>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>194175</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>45674</xdr:rowOff>
+      <xdr:rowOff>26624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1813,7 +1819,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11525250" y="5400674"/>
+          <a:off x="9477375" y="10334624"/>
           <a:ext cx="1080000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1858,10 +1864,10 @@
       <xdr:rowOff>17099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1873,14 +1879,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
+          <a:stCxn id="22" idx="0"/>
           <a:endCxn id="8" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2191612" y="10685099"/>
-          <a:ext cx="4852126" cy="1211627"/>
+          <a:ext cx="2337526" cy="230552"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1914,10 +1920,10 @@
       <xdr:rowOff>17099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1929,14 +1935,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
+          <a:stCxn id="22" idx="0"/>
           <a:endCxn id="10" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="4525237" y="10685099"/>
-          <a:ext cx="2518501" cy="1211627"/>
+          <a:ext cx="3901" cy="230552"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1964,16 +1970,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>179024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>17099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>353287</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>10387</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1985,14 +1991,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
+          <a:stCxn id="22" idx="0"/>
           <a:endCxn id="11" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7043738" y="10685099"/>
-          <a:ext cx="15149" cy="1211627"/>
+          <a:off x="4529138" y="10656524"/>
+          <a:ext cx="2186849" cy="259127"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2021,15 +2027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>17099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>454275</xdr:colOff>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>169499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>359025</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2047,14 +2053,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7043738" y="10685099"/>
-          <a:ext cx="2554537" cy="1211627"/>
+          <a:off x="7058026" y="10646999"/>
+          <a:ext cx="7321799" cy="1278302"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2076,16 +2083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>65699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>473324</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2097,14 +2104,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
+          <a:stCxn id="111" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7515225" y="12067199"/>
-          <a:ext cx="1809749" cy="20027"/>
+        <a:xfrm flipH="1">
+          <a:off x="9007724" y="12306301"/>
+          <a:ext cx="2927" cy="371473"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2300,15 +2307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>422887</xdr:colOff>
+      <xdr:colOff>79987</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>283687</xdr:colOff>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>550387</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>55199</xdr:rowOff>
+      <xdr:rowOff>26624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2323,7 +2330,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6518887" y="8077199"/>
+          <a:off x="6175987" y="8048624"/>
           <a:ext cx="1080000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2367,16 +2374,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>384675</xdr:colOff>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>289425</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>55199</xdr:rowOff>
+      <xdr:rowOff>17099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2391,7 +2398,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9058275" y="3124199"/>
+          <a:off x="13839825" y="8039099"/>
           <a:ext cx="1080000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2462,16 +2469,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>413250</xdr:colOff>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>194175</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>36149</xdr:rowOff>
+      <xdr:rowOff>17099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2486,7 +2493,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11525250" y="3105149"/>
+          <a:off x="9477375" y="8039099"/>
           <a:ext cx="1080000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2531,15 +2538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
+      <xdr:colOff>352426</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>45674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>482850</xdr:colOff>
+      <xdr:rowOff>26624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>263775</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2557,14 +2564,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7043738" y="10713674"/>
-          <a:ext cx="5021512" cy="1183052"/>
+          <a:off x="7058026" y="10694624"/>
+          <a:ext cx="2959349" cy="1230677"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2620,7 +2628,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2676,7 +2685,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2699,15 +2709,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>353287</xdr:colOff>
+      <xdr:colOff>10387</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>55199</xdr:rowOff>
+      <xdr:rowOff>26624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>353287</xdr:colOff>
+      <xdr:colOff>10387</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2725,14 +2735,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7058887" y="8437199"/>
+          <a:off x="6715987" y="8408624"/>
           <a:ext cx="0" cy="1887900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2754,16 +2765,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>454275</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>359025</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>55199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>454275</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>17099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>359025</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2781,14 +2792,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9598275" y="3484199"/>
+          <a:off x="14379825" y="8399099"/>
           <a:ext cx="0" cy="1887900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2810,16 +2822,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>482850</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>263775</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>36149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>482850</xdr:colOff>
+      <xdr:rowOff>17099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>263775</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2837,14 +2849,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12065250" y="3465149"/>
+          <a:off x="10017375" y="8399099"/>
           <a:ext cx="0" cy="1935525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2867,15 +2880,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>535125</xdr:colOff>
+      <xdr:colOff>544650</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83774</xdr:rowOff>
+      <xdr:rowOff>112349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2890,7 +2903,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7629525" y="866774"/>
+          <a:off x="7639050" y="895349"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2898,7 +2911,8 @@
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent4">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:effectLst>
@@ -2932,7 +2946,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>guiMain.py</a:t>
           </a:r>
         </a:p>
@@ -3017,14 +3035,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>506550</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>411300</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>140924</xdr:rowOff>
     </xdr:to>
@@ -3041,7 +3059,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5162550" y="3019424"/>
+          <a:off x="7505700" y="5305424"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3090,7 +3108,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>guiDictionary.py</a:t>
+            <a:t>guiTable.py</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3174,14 +3192,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>211275</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>116025</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>74249</xdr:rowOff>
     </xdr:to>
@@ -3198,7 +3216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5476875" y="4095749"/>
+          <a:off x="7820025" y="6381749"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3256,14 +3274,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>277950</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182700</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>45674</xdr:rowOff>
     </xdr:to>
@@ -3280,7 +3298,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933950" y="3686174"/>
+          <a:off x="7277100" y="5972174"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3420,16 +3438,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>463687</xdr:colOff>
+      <xdr:colOff>120787</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>159974</xdr:rowOff>
+      <xdr:rowOff>131399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3444,7 +3462,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6338887" y="4371974"/>
+          <a:off x="5995987" y="4343399"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3570,14 +3588,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>167550</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>72300</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>140924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>396150</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300900</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
@@ -3597,7 +3615,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5653950" y="3379424"/>
+          <a:off x="7997100" y="5665424"/>
           <a:ext cx="228600" cy="306750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3631,14 +3649,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>396150</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300900</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>140924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>100875</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5625</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
@@ -3658,7 +3676,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5882550" y="3379424"/>
+          <a:off x="8225700" y="5665424"/>
           <a:ext cx="314325" cy="716325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3698,8 +3716,8 @@
       <xdr:rowOff>159974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>396150</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300900</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -3720,7 +3738,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2191612" y="4731974"/>
-          <a:ext cx="3690938" cy="573450"/>
+          <a:ext cx="6034088" cy="573450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3759,8 +3777,8 @@
       <xdr:rowOff>159974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>396150</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300900</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -3781,7 +3799,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="4525237" y="4731974"/>
-          <a:ext cx="1357313" cy="573450"/>
+          <a:ext cx="3700463" cy="573450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3814,14 +3832,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>396150</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10387</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>159974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>353287</xdr:colOff>
+      <xdr:rowOff>131399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300900</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -3840,9 +3858,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5882550" y="4731974"/>
-          <a:ext cx="1176337" cy="573450"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6715987" y="4703399"/>
+          <a:ext cx="1509713" cy="602025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4049,15 +4067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>353287</xdr:colOff>
+      <xdr:colOff>10387</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>159974</xdr:rowOff>
+      <xdr:rowOff>131399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>353287</xdr:colOff>
+      <xdr:colOff>10387</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4075,7 +4093,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7058887" y="4731974"/>
+          <a:off x="6715987" y="4703399"/>
           <a:ext cx="0" cy="3345225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4180,16 +4198,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>509587</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>463687</xdr:colOff>
+      <xdr:colOff>120787</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>64724</xdr:rowOff>
+      <xdr:rowOff>36149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4204,7 +4222,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6338887" y="2181224"/>
+          <a:off x="5995987" y="2152649"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4457,11 +4475,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>329475</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>64724</xdr:rowOff>
+      <xdr:rowOff>36149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>353287</xdr:colOff>
+      <xdr:colOff>10387</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
@@ -4481,8 +4499,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3377475" y="2541224"/>
-          <a:ext cx="3681412" cy="497250"/>
+          <a:off x="3377475" y="2512649"/>
+          <a:ext cx="3338512" cy="525825"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4628,15 +4646,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>353287</xdr:colOff>
+      <xdr:colOff>10387</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>64724</xdr:rowOff>
+      <xdr:rowOff>36149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>353287</xdr:colOff>
+      <xdr:colOff>10387</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4654,7 +4672,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7058887" y="2541224"/>
+          <a:off x="6715987" y="2512649"/>
           <a:ext cx="0" cy="1830750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4683,14 +4701,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>16012</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>349387</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>140924</xdr:rowOff>
     </xdr:to>
@@ -4707,7 +4725,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13816012" y="4352924"/>
+          <a:off x="11101387" y="4352924"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4758,14 +4776,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>489450</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>232275</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>36149</xdr:rowOff>
     </xdr:to>
@@ -4782,7 +4800,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14039850" y="10344149"/>
+          <a:off x="11344275" y="10344149"/>
           <a:ext cx="1080000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4848,14 +4866,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>479925</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>222750</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>150449</xdr:rowOff>
     </xdr:to>
@@ -4872,7 +4890,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14030325" y="7981949"/>
+          <a:off x="11334750" y="7981949"/>
           <a:ext cx="1080000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4943,14 +4961,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>549525</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>292350</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>150449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>559050</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>301875</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
@@ -4970,14 +4988,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="14570325" y="8341949"/>
+          <a:off x="11874750" y="8341949"/>
           <a:ext cx="9525" cy="2002200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -5000,15 +5019,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>338138</xdr:colOff>
+      <xdr:colOff>352426</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>36149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>559050</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>301875</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5026,14 +5045,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7043738" y="10704149"/>
-          <a:ext cx="7536112" cy="1192577"/>
+          <a:off x="7058026" y="10704149"/>
+          <a:ext cx="4826249" cy="1221152"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -5055,14 +5075,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>515212</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238987</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>140924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>549525</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>292350</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
@@ -5082,8 +5102,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="14536012" y="4712924"/>
-          <a:ext cx="34313" cy="3269025"/>
+          <a:off x="11821387" y="4712924"/>
+          <a:ext cx="53363" cy="3269025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5111,14 +5131,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>396150</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300900</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>140924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>515212</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238987</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -5138,8 +5158,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5882550" y="4712924"/>
-          <a:ext cx="8653462" cy="592500"/>
+          <a:off x="8225700" y="4712924"/>
+          <a:ext cx="3595687" cy="592500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5150,6 +5170,330 @@
               <a:alpha val="50196"/>
             </a:srgbClr>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6312EA-FF1C-4FE0-8A31-F0960C0F9012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="10915651"/>
+          <a:ext cx="1133475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dbDictionary.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFD4193-5EA8-E6AA-3ECB-2454D2C5C6DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4529138" y="11296651"/>
+          <a:ext cx="2528888" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="Rectangle 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F8FBEA-0898-4AD2-B865-4DFE8B7B1BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477251" y="11925301"/>
+          <a:ext cx="1066800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>dbCreate.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Straight Arrow Connector 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F89B99-FFAC-476D-15A9-249C5EEC6766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="111" idx="1"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7038976" y="12115801"/>
+          <a:ext cx="1438275" cy="1504949"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>83774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>473324</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Straight Arrow Connector 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC77EE83-25DB-5850-050D-B6E98C630A40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="2" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7648576" y="13037774"/>
+          <a:ext cx="1359148" cy="1202101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -6116,10 +6460,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC19A3C-744C-4DF8-B4F4-248E994AC067}">
-  <dimension ref="A5:A66"/>
+  <dimension ref="A5:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6198,6 +6542,10 @@
     <row r="64" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikll\Documents\python\normzad\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09FBA52-FF97-4E11-ACBE-F0F0CE10A921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C257B6-B1B4-48AD-A4C2-DF87211A02B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="1080" windowWidth="26025" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6462,7 +6462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC19A3C-744C-4DF8-B4F4-248E994AC067}">
   <dimension ref="A5:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikll\Documents\python\normzad\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C257B6-B1B4-48AD-A4C2-DF87211A02B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C59AD5-8DE3-4061-AEE8-2D8983B8A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1080" windowWidth="26025" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="705" windowWidth="26025" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3117,16 +3117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>439875</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>159974</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>525600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3141,7 +3141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2657475" y="3038474"/>
+          <a:off x="7010400" y="3162299"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3356,16 +3356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>430350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>179024</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>516075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3380,7 +3380,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="3629024"/>
+          <a:off x="7000875" y="3752849"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3893,16 +3893,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>319950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>159974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>329475</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>405675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415200</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3920,7 +3920,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3367950" y="3398474"/>
+          <a:off x="7720875" y="3522299"/>
           <a:ext cx="9525" cy="230550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4356,10 +4356,10 @@
       <xdr:rowOff>64724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>329475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4378,7 +4378,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="2191612" y="2541224"/>
-          <a:ext cx="1185863" cy="497250"/>
+          <a:ext cx="5538788" cy="621075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4411,16 +4411,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>329475</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>64724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>258037</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4437,9 +4437,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3377475" y="2541224"/>
-          <a:ext cx="1147762" cy="497250"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4525237" y="2541224"/>
+          <a:ext cx="3205163" cy="621075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4472,16 +4472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>329475</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10387</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>36149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10387</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>415200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4498,9 +4498,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3377475" y="2512649"/>
-          <a:ext cx="3338512" cy="525825"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6715987" y="2512649"/>
+          <a:ext cx="1014413" cy="649650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5512,6 +5512,147 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>434250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238987</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CEBC34-A84A-4CE3-A73F-3391A8573759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="158" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8359050" y="1255349"/>
+          <a:ext cx="3462337" cy="3097575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>135075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>26624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9C454F-8E29-4AFE-AD63-FEA7E88BD0EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="5953124"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7F6000">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="2F528F">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>guiCommon.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6462,8 +6603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC19A3C-744C-4DF8-B4F4-248E994AC067}">
   <dimension ref="A5:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q75" sqref="Q75"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/dbStructure.xlsx
+++ b/docs/dbStructure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikll\Documents\python\normzad\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C59AD5-8DE3-4061-AEE8-2D8983B8A2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7E9EBA-A309-493A-8D52-9B6182CBC21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="705" windowWidth="26025" windowHeight="19800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1033,183 +1033,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10387</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>112349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="Straight Arrow Connector 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607F5A85-423D-5F3F-F655-2CFBE31DC593}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="68" idx="2"/>
-          <a:endCxn id="76" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6715987" y="1255349"/>
-          <a:ext cx="1643063" cy="3088050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="002060"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>258037</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>112349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="Straight Arrow Connector 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43DDB768-E80F-80A3-8C07-0ACB173E35ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="68" idx="2"/>
-          <a:endCxn id="77" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4525237" y="1255349"/>
-          <a:ext cx="3833813" cy="3116625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="002060"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>362812</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>112349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="Straight Arrow Connector 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398AF4E7-F0A1-61EF-5025-DE538113858D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="68" idx="2"/>
-          <a:endCxn id="69" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2191612" y="1255349"/>
-          <a:ext cx="6167438" cy="3116625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="002060"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
       <xdr:row>71</xdr:row>
@@ -1637,96 +1460,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>289425</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>169499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D268B74-5360-7F03-F368-91DA18B432C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13839825" y="10286999"/>
-          <a:ext cx="1080000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>dbJobs.py</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>542924</xdr:colOff>
       <xdr:row>66</xdr:row>
@@ -2005,63 +1738,6 @@
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352426</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>169499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>359025</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B942446-B69F-A467-660F-DB01D9067ADB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="12" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7058026" y="10646999"/>
-          <a:ext cx="7321799" cy="1278302"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2374,101 +2050,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>289425</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>17099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rectangle 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C678E69C-93CC-4FB1-8F7F-F64C1AAA6ED6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13839825" y="8039099"/>
-          <a:ext cx="1080000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>blJobs.py</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>42</xdr:row>
@@ -2765,63 +2346,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>359025</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>17099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>359025</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A655B5BE-5185-D2F2-E293-5F085C3E4375}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="0"/>
-          <a:endCxn id="46" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="14379825" y="8399099"/>
-          <a:ext cx="0" cy="1887900"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>263775</xdr:colOff>
       <xdr:row>44</xdr:row>
@@ -2879,16 +2403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>544650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>112349</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2903,8 +2427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="895349"/>
-          <a:ext cx="1440000" cy="360000"/>
+          <a:off x="1219199" y="1543050"/>
+          <a:ext cx="12506325" cy="1226774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2941,18 +2465,31 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-150" sz="1600">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>guiMain.py</a:t>
+            <a:t>Главное</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-150" sz="1600" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> окно</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2961,15 +2498,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>473212</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>159974</xdr:rowOff>
+      <xdr:colOff>454162</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2984,7 +2521,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1471612" y="4371974"/>
+          <a:off x="1452562" y="3314699"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2995,13 +2532,7 @@
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT prst="relaxedInset"/>
-        </a:sp3d>
+        <a:effectLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3023,9 +2554,16 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>guiDepartments.py</a:t>
           </a:r>
         </a:p>
@@ -3108,7 +2646,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>guiTable.py</a:t>
+            <a:t>guiGridButtons.py</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3117,16 +2655,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>525600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>93299</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3141,7 +2679,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="3162299"/>
+          <a:off x="2781300" y="5781674"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3356,23 +2894,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>516075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112349</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>101737</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Rectangle 74">
+        <xdr:cNvPr id="76" name="Rectangle 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEABAAF-F9E5-4584-BCAC-6BEF6F6480AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F3197B-8EAE-4225-9625-0BB4463E8C05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3380,24 +2918,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7000875" y="3752849"/>
+          <a:off x="5976937" y="3286124"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="7F6000">
-            <a:alpha val="50196"/>
-          </a:srgbClr>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="2F528F">
-              <a:alpha val="50196"/>
-            </a:srgbClr>
-          </a:solidFill>
-        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3429,81 +2961,6 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>guiFrameLbltext.py</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>120787</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>131399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Rectangle 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F3197B-8EAE-4225-9625-0BB4463E8C05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5995987" y="4343399"/>
-          <a:ext cx="1440000" cy="360000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT prst="relaxedInset"/>
-        </a:sp3d>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
             <a:t>guiPositions.py</a:t>
           </a:r>
         </a:p>
@@ -3514,15 +2971,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>368437</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>159974</xdr:rowOff>
+      <xdr:colOff>349387</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3537,7 +2994,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3805237" y="4371974"/>
+          <a:off x="3786187" y="3314699"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3548,13 +3005,7 @@
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT prst="relaxedInset"/>
-        </a:sp3d>
+        <a:effectLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3576,9 +3027,16 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>guiTasks.py</a:t>
           </a:r>
         </a:p>
@@ -3711,9 +3169,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>362812</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>159974</xdr:rowOff>
+      <xdr:colOff>343762</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -3737,8 +3195,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2191612" y="4731974"/>
-          <a:ext cx="6034088" cy="573450"/>
+          <a:off x="2172562" y="3674699"/>
+          <a:ext cx="6053138" cy="1630725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3772,9 +3230,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>258037</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>159974</xdr:rowOff>
+      <xdr:colOff>238987</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -3798,8 +3256,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4525237" y="4731974"/>
-          <a:ext cx="3700463" cy="573450"/>
+          <a:off x="4506187" y="3674699"/>
+          <a:ext cx="3719513" cy="1630725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3832,10 +3290,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10387</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>131399</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600937</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -3859,8 +3317,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6715987" y="4703399"/>
-          <a:ext cx="1509713" cy="602025"/>
+          <a:off x="6696937" y="3646124"/>
+          <a:ext cx="1528763" cy="1659300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3893,71 +3351,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>405675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>93299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>415200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>343762</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="Straight Arrow Connector 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD3BF91-F24F-4ADD-8FF6-0A5D49B0B7B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="75" idx="0"/>
-          <a:endCxn id="71" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7720875" y="3522299"/>
-          <a:ext cx="9525" cy="230550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="4472C4">
-              <a:alpha val="50196"/>
-            </a:srgbClr>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>362812</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>159974</xdr:rowOff>
+      <xdr:rowOff>55199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -3980,9 +3377,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2191612" y="4731974"/>
-          <a:ext cx="0" cy="3345225"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2172562" y="3674699"/>
+          <a:ext cx="19050" cy="4402500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4011,9 +3408,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>258037</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>159974</xdr:rowOff>
+      <xdr:colOff>238987</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -4036,9 +3433,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4525237" y="4731974"/>
-          <a:ext cx="0" cy="3345225"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4506187" y="3674699"/>
+          <a:ext cx="19050" cy="4402500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4066,10 +3463,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10387</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>131399</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600937</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -4092,9 +3489,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6715987" y="4703399"/>
-          <a:ext cx="0" cy="3345225"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6696937" y="3646124"/>
+          <a:ext cx="19050" cy="4402500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4123,15 +3520,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
+      <xdr:colOff>242887</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>473212</xdr:colOff>
+      <xdr:colOff>463687</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>64724</xdr:rowOff>
+      <xdr:rowOff>83774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4146,7 +3543,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1471612" y="2181224"/>
+          <a:off x="1462087" y="2200274"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4188,9 +3585,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>guiDepartments.py</a:t>
+            <a:rPr lang="en-150" sz="1100"/>
+            <a:t>Подразделения</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4199,15 +3597,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>509587</xdr:colOff>
+      <xdr:colOff>500062</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>120787</xdr:colOff>
+      <xdr:colOff>111262</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>36149</xdr:rowOff>
+      <xdr:rowOff>55199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4222,7 +3620,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5995987" y="2152649"/>
+          <a:off x="5986462" y="2171699"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4264,9 +3662,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>guiPositions.py</a:t>
+            <a:rPr lang="en-150" sz="1100"/>
+            <a:t>Должности</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4275,15 +3674,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
+      <xdr:colOff>138112</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>368437</xdr:colOff>
+      <xdr:colOff>358912</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>64724</xdr:rowOff>
+      <xdr:rowOff>83774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4298,7 +3697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3805237" y="2181224"/>
+          <a:off x="3795712" y="2200274"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4340,9 +3739,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>guiTasks.py</a:t>
+            <a:rPr lang="en-150" sz="1100"/>
+            <a:t>Задания</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4351,15 +3751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>362812</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>64724</xdr:rowOff>
+      <xdr:colOff>343762</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>415200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>453300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4372,13 +3772,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="71" idx="0"/>
-          <a:endCxn id="107" idx="2"/>
+          <a:endCxn id="69" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2191612" y="2541224"/>
-          <a:ext cx="5538788" cy="621075"/>
+          <a:off x="2172562" y="3674699"/>
+          <a:ext cx="1328738" cy="2106975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4411,16 +3811,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>258037</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>64724</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>453300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>415200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238987</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4433,13 +3833,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="71" idx="0"/>
-          <a:endCxn id="109" idx="2"/>
+          <a:endCxn id="77" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4525237" y="2541224"/>
-          <a:ext cx="3205163" cy="621075"/>
+        <a:xfrm flipV="1">
+          <a:off x="3501300" y="3674699"/>
+          <a:ext cx="1004887" cy="2106975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4472,16 +3872,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10387</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>36149</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>453300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>415200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600937</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4494,13 +3894,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="71" idx="0"/>
-          <a:endCxn id="108" idx="2"/>
+          <a:endCxn id="76" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6715987" y="2512649"/>
-          <a:ext cx="1014413" cy="649650"/>
+        <a:xfrm flipV="1">
+          <a:off x="3501300" y="3646124"/>
+          <a:ext cx="3195637" cy="2135550"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4534,15 +3934,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>362812</xdr:colOff>
+      <xdr:colOff>343762</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>64724</xdr:rowOff>
+      <xdr:rowOff>83774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>362812</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4560,8 +3960,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2191612" y="2541224"/>
-          <a:ext cx="0" cy="1830750"/>
+          <a:off x="2172562" y="2560274"/>
+          <a:ext cx="9525" cy="754425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4590,15 +3990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>258037</xdr:colOff>
+      <xdr:colOff>238987</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>64724</xdr:rowOff>
+      <xdr:rowOff>83774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>258037</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>248512</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4616,8 +4016,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4525237" y="2541224"/>
-          <a:ext cx="0" cy="1830750"/>
+          <a:off x="4506187" y="2560274"/>
+          <a:ext cx="9525" cy="754425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4645,16 +4045,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>10387</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600937</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>36149</xdr:rowOff>
+      <xdr:rowOff>55199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>10387</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>862</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4672,8 +4072,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6715987" y="2512649"/>
-          <a:ext cx="0" cy="1830750"/>
+          <a:off x="6696937" y="2531699"/>
+          <a:ext cx="9525" cy="754425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4702,15 +4102,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>349387</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>140924</xdr:rowOff>
+      <xdr:colOff>330337</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>36149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4725,7 +4125,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11101387" y="4352924"/>
+          <a:off x="11082337" y="3295649"/>
           <a:ext cx="1440000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4736,13 +4136,7 @@
             <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT prst="relaxedInset"/>
-        </a:sp3d>
+        <a:effectLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4764,10 +4158,17 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>guiJobList.py</a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>guiJobs.py</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4854,7 +4255,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>dbJobList.py</a:t>
+            <a:t>dbJobs.py</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -4949,7 +4350,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>blJobList.py</a:t>
+            <a:t>blJobs.py</a:t>
           </a:r>
           <a:endParaRPr lang="en-US">
             <a:effectLst/>
@@ -5076,9 +4477,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>238987</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>140924</xdr:rowOff>
+      <xdr:colOff>219937</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>36149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -5102,8 +4503,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11821387" y="4712924"/>
-          <a:ext cx="53363" cy="3269025"/>
+          <a:off x="11802337" y="3655649"/>
+          <a:ext cx="72413" cy="4326300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5133,12 +4534,12 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>300900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>140924</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>36149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>238987</xdr:colOff>
+      <xdr:colOff>219937</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -5158,8 +4559,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8225700" y="4712924"/>
-          <a:ext cx="3595687" cy="592500"/>
+          <a:off x="8225700" y="3655649"/>
+          <a:ext cx="3576637" cy="1649775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5516,65 +4917,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>112349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>238987</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CEBC34-A84A-4CE3-A73F-3391A8573759}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="68" idx="2"/>
-          <a:endCxn id="158" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8359050" y="1255349"/>
-          <a:ext cx="3462337" cy="3097575"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="002060"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -5653,6 +4995,1212 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447800" cy="361951"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7074E2-B559-3644-9EAD-6B4E6F7EF32A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286875" y="3305175"/>
+          <a:ext cx="1447800" cy="361951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>guiWorkers.py</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>263775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA488CD-B005-4959-AF5C-B74FEC08B174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10010775" y="3667126"/>
+          <a:ext cx="6600" cy="4371973"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>316050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Rectangle 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A05735E-DB11-49CB-8D3F-0C11EE5639EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800850" y="4429125"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>guiMain.py</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Straight Arrow Connector 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CBE07C-EE26-48CD-9F21-32FB8B94EB3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="97" idx="0"/>
+          <a:endCxn id="68" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7472362" y="2769824"/>
+          <a:ext cx="48488" cy="1659301"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368437</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="Rectangle 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC4C288-27D7-444C-9B53-FBB5177855C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9291637" y="2171699"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-150" sz="1100"/>
+            <a:t>Сотрудники</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>282712</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>74249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="Rectangle 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FDC9E2-C39A-4C19-A944-BC09533A1E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11034712" y="2190749"/>
+          <a:ext cx="1440000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-150" sz="1100"/>
+            <a:t>Табель</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="Straight Arrow Connector 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0156A0-FE9B-42FA-89FB-D3A66B081C0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="139" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10010775" y="2531699"/>
+          <a:ext cx="862" cy="773476"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>172312</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>74249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>219937</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="Straight Arrow Connector 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D8762D-2CF8-4FAC-B8C4-B44EF3C5C214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="158" idx="0"/>
+          <a:endCxn id="140" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11754712" y="2550749"/>
+          <a:ext cx="47625" cy="744900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="Straight Arrow Connector 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CEE954E-5FBF-497D-8A81-4B9059F84532}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8225700" y="3667126"/>
+          <a:ext cx="1785075" cy="1638298"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4472C4">
+              <a:alpha val="50196"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="Rectangle 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFF5F9C-9705-354A-865B-0FBC170D7FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457324" y="923925"/>
+          <a:ext cx="1495425" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-150" sz="1100"/>
+            <a:t>Добавить/Изменить</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="Rectangle 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C43E2D-97EB-4569-8BBF-724AF4E5F921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3809999" y="904875"/>
+          <a:ext cx="1495425" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-150" sz="1100"/>
+            <a:t>Добавить/Изменить</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="Rectangle 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13839474-6527-412A-AE5C-0BAB2FA66516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962649" y="904875"/>
+          <a:ext cx="1495425" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-150" sz="1100"/>
+            <a:t>Добавить/Изменить</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="Rectangle 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7420C050-A466-43E4-99D2-C8AED8C6F3BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9286874" y="876300"/>
+          <a:ext cx="1495425" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-150" sz="1100"/>
+            <a:t>Добавить/Изменить</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="Rectangle 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BCEDB1-A393-455B-9758-177BFC58658E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11020424" y="866775"/>
+          <a:ext cx="1495425" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-150" sz="1100"/>
+            <a:t>Добавить/Изменить</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>172312</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="191" name="Straight Arrow Connector 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E8EFF1-4D57-4C3D-8249-4984C766C315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="140" idx="0"/>
+          <a:endCxn id="190" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11754712" y="1228725"/>
+          <a:ext cx="13425" cy="962024"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>258037</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="Straight Arrow Connector 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E9AB39-FD97-4DD9-83F7-07220972D099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="139" idx="0"/>
+          <a:endCxn id="189" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10011637" y="1238250"/>
+          <a:ext cx="22950" cy="933449"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>862</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="197" name="Straight Arrow Connector 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E244A0-3F09-4465-9010-B91351C33EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="108" idx="0"/>
+          <a:endCxn id="188" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6706462" y="1266825"/>
+          <a:ext cx="3900" cy="904874"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>248512</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="200" name="Straight Arrow Connector 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7848C334-7581-41EB-B3CD-A3AD5D14FABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="0"/>
+          <a:endCxn id="187" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4515712" y="1266825"/>
+          <a:ext cx="42000" cy="933449"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>353287</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="203" name="Straight Arrow Connector 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE088A5-F8B8-4297-9806-6D33A04B0D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="107" idx="0"/>
+          <a:endCxn id="185" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2182087" y="1285875"/>
+          <a:ext cx="22950" cy="914399"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6601,93 +7149,1740 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC19A3C-744C-4DF8-B4F4-248E994AC067}">
-  <dimension ref="A5:A70"/>
+  <dimension ref="A5:X70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:1" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
+      <c r="R37" s="34"/>
+      <c r="S37" s="34"/>
+      <c r="T37" s="34"/>
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="34"/>
+      <c r="S39" s="34"/>
+      <c r="T39" s="34"/>
+      <c r="U39" s="34"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="34"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="34"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="34"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="34"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="34"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="34"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="34"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="33" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="33"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="33"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="33"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="33"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="33"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="33"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
+      <c r="V67" s="33"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="33"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="33"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69" s="33"/>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AF6:AF33">
+    <sortCondition ref="AF6:AF33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
